--- a/data/BOC/HOUS/SHIP/shipment.xlsx
+++ b/data/BOC/HOUS/SHIP/shipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\constexp\Manufactured Housing Survey\Internet Files\Monthly Files\2021 Monthly Files\202106_Nov.8.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202110 - March 8, 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983DC79-16CB-4D70-BD5A-798294771AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F1A07-D657-4183-9301-F9E5DA3BD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4620" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shipment" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     </r>
   </si>
   <si>
-    <t>Shipments of New Manufactured Homes, 2016 - 2021</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -181,7 +178,7 @@
   </si>
   <si>
     <r>
-      <t>August</t>
+      <t>November</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +192,7 @@
   </si>
   <si>
     <r>
-      <t>September</t>
+      <t>December</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +206,7 @@
   </si>
   <si>
     <r>
-      <t>October</t>
+      <t>January</t>
     </r>
     <r>
       <rPr>
@@ -220,6 +217,9 @@
       </rPr>
       <t>p</t>
     </r>
+  </si>
+  <si>
+    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,6 +452,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,30 +1062,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1115,14 +1116,14 @@
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -1139,29 +1140,29 @@
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" s="14">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="C5" s="15">
-        <v>96.417737044686206</v>
+        <v>97.435556967765407</v>
       </c>
       <c r="D5" s="14">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="14">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="H5" s="15">
-        <v>106.96522787455301</v>
+        <v>96.417737044686206</v>
       </c>
       <c r="I5" s="14">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="18"/>
@@ -1177,27 +1178,20 @@
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
-        <v>93.9168451372812</v>
-      </c>
-      <c r="D6" s="14">
-        <v>102</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="E6" s="12"/>
       <c r="F6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="14">
-        <v>8.1999999999999993</v>
+      <c r="G6" s="15">
+        <v>8</v>
       </c>
       <c r="H6" s="15">
-        <v>94.798430069149902</v>
+        <v>93.9168451372812</v>
       </c>
       <c r="I6" s="14">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="18"/>
@@ -1213,27 +1207,20 @@
       <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15">
-        <v>110.808909071233</v>
-      </c>
-      <c r="D7" s="14">
-        <v>108</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="E7" s="12"/>
       <c r="F7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>8.3000000000000007</v>
+      <c r="G7" s="15">
+        <v>10</v>
       </c>
       <c r="H7" s="15">
-        <v>104.14945048735601</v>
+        <v>110.808909071233</v>
       </c>
       <c r="I7" s="14">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="18"/>
@@ -1249,27 +1236,20 @@
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C8" s="15">
-        <v>105.02005397810501</v>
-      </c>
-      <c r="D8" s="14">
-        <v>106</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="E8" s="12"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="15">
-        <v>6.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H8" s="15">
-        <v>106.04694260085901</v>
+        <v>105.02005397810501</v>
       </c>
       <c r="I8" s="14">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="18"/>
@@ -1285,27 +1265,20 @@
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15">
-        <v>8.6</v>
-      </c>
-      <c r="C9" s="15">
-        <v>98.139794120145595</v>
-      </c>
-      <c r="D9" s="14">
-        <v>105</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="14">
-        <v>6.6</v>
+      <c r="G9" s="15">
+        <v>8.6</v>
       </c>
       <c r="H9" s="15">
-        <v>97.425774639786994</v>
+        <v>98.139794120145595</v>
       </c>
       <c r="I9" s="14">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="18"/>
@@ -1321,27 +1294,20 @@
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15">
-        <v>9.4</v>
-      </c>
-      <c r="C10" s="15">
-        <v>107.151695968963</v>
-      </c>
-      <c r="D10" s="14">
-        <v>106</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="E10" s="21"/>
       <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14">
-        <v>7.6</v>
+      <c r="G10" s="15">
+        <v>9.4</v>
       </c>
       <c r="H10" s="15">
-        <v>104.09681621557401</v>
+        <v>107.151695968963</v>
       </c>
       <c r="I10" s="14">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10"/>
@@ -1358,27 +1324,20 @@
       <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
-        <v>7.6</v>
-      </c>
-      <c r="C11" s="15">
-        <v>87.516103318309803</v>
-      </c>
-      <c r="D11" s="14">
-        <v>104</v>
-      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="E11" s="21"/>
       <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="14">
-        <v>7.5</v>
+      <c r="G11" s="15">
+        <v>7.6</v>
       </c>
       <c r="H11" s="15">
-        <v>95.768920290599297</v>
+        <v>87.516103318309803</v>
       </c>
       <c r="I11" s="14">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11"/>
@@ -1393,29 +1352,22 @@
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15">
-        <v>9.1</v>
-      </c>
-      <c r="C12" s="15">
-        <v>103.545277161554</v>
-      </c>
-      <c r="D12" s="14">
-        <v>105</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="14">
-        <v>7.9</v>
+      <c r="G12" s="15">
+        <v>9.1</v>
       </c>
       <c r="H12" s="15">
-        <v>100.466950080389</v>
+        <v>103.545277161554</v>
       </c>
       <c r="I12" s="14">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="18"/>
@@ -1428,29 +1380,22 @@
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="15">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15">
-        <v>103.24148159987401</v>
-      </c>
-      <c r="D13" s="14">
-        <v>105</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="E13" s="12"/>
       <c r="F13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="15">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="H13" s="15">
-        <v>101.49368462410899</v>
+        <v>102.55040800902799</v>
       </c>
       <c r="I13" s="14">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="18"/>
@@ -1463,29 +1408,22 @@
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C14" s="15">
-        <v>103.91460180629599</v>
-      </c>
-      <c r="D14" s="14">
-        <v>107</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="E14" s="12"/>
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="15">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H14" s="15">
-        <v>110.16305817539201</v>
+        <v>103.933377656305</v>
       </c>
       <c r="I14" s="14">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="18"/>
@@ -1502,19 +1440,18 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G15" s="15">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="H15" s="15">
-        <v>95.410517592173704</v>
+        <v>99.081815858268698</v>
       </c>
       <c r="I15" s="14">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="18"/>
@@ -1531,19 +1468,18 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
       <c r="E16" s="12"/>
       <c r="F16" s="18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G16" s="15">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>89.010477612034705</v>
+        <v>88.644701218781591</v>
       </c>
       <c r="I16" s="14">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="18"/>
@@ -1558,17 +1494,17 @@
       <c r="A17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="40">
-        <v>88.7</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="12"/>
       <c r="F17" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="40">
-        <v>94.4</v>
+        <v>105.8</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="35"/>
@@ -1595,14 +1531,14 @@
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1613,26 +1549,26 @@
         <v>14</v>
       </c>
       <c r="B20" s="14">
-        <v>7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C20" s="15">
-        <v>103.93459905047699</v>
+        <v>106.96522787455301</v>
       </c>
       <c r="D20" s="14">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="14">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="H20" s="15">
-        <v>100.38523429133599</v>
+        <v>103.93459905047699</v>
       </c>
       <c r="I20" s="14">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1643,26 +1579,26 @@
         <v>15</v>
       </c>
       <c r="B21" s="14">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C21" s="15">
-        <v>95.729303953600095</v>
+        <v>94.798430069149902</v>
       </c>
       <c r="D21" s="14">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="14">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="H21" s="15">
-        <v>95.610214500838495</v>
+        <v>95.729303953600095</v>
       </c>
       <c r="I21" s="14">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
@@ -1673,26 +1609,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="14">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C22" s="15">
-        <v>100.336240058908</v>
+        <v>104.14945048735601</v>
       </c>
       <c r="D22" s="14">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="14">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="H22" s="15">
-        <v>105.811288727171</v>
+        <v>100.336240058908</v>
       </c>
       <c r="I22" s="14">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -1703,26 +1639,26 @@
         <v>16</v>
       </c>
       <c r="B23" s="15">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C23" s="15">
-        <v>101.999112286691</v>
+        <v>106.04694260085901</v>
       </c>
       <c r="D23" s="14">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="14">
-        <v>8.3000000000000007</v>
+      <c r="G23" s="15">
+        <v>8</v>
       </c>
       <c r="H23" s="15">
-        <v>99.979970383081692</v>
+        <v>101.999112286691</v>
       </c>
       <c r="I23" s="14">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,26 +1666,26 @@
         <v>17</v>
       </c>
       <c r="B24" s="14">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="C24" s="15">
-        <v>109.537430303337</v>
+        <v>97.425774639786994</v>
       </c>
       <c r="D24" s="14">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="14">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="H24" s="15">
-        <v>108.04525102160001</v>
+        <v>109.537430303337</v>
       </c>
       <c r="I24" s="14">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,26 +1693,26 @@
         <v>18</v>
       </c>
       <c r="B25" s="14">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="C25" s="15">
-        <v>97.449458621948807</v>
+        <v>104.09681621557401</v>
       </c>
       <c r="D25" s="14">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="14">
-        <v>8.3000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="H25" s="15">
-        <v>101.849599560729</v>
+        <v>97.449458621948807</v>
       </c>
       <c r="I25" s="14">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1784,23 +1720,23 @@
         <v>19</v>
       </c>
       <c r="B26" s="14">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C26" s="15">
-        <v>90.036321702416799</v>
+        <v>95.768920290599297</v>
       </c>
       <c r="D26" s="14">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="14">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H26" s="15">
-        <v>85.445798895994898</v>
+        <v>90.036321702416799</v>
       </c>
       <c r="I26" s="14">
         <v>95</v>
@@ -1811,26 +1747,26 @@
         <v>2</v>
       </c>
       <c r="B27" s="14">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="C27" s="15">
-        <v>108.03602444409499</v>
+        <v>100.466950080389</v>
       </c>
       <c r="D27" s="14">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="H27" s="15">
-        <v>113.57993743685999</v>
+        <v>108.03602444409499</v>
       </c>
       <c r="I27" s="14">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,53 +1774,53 @@
         <v>3</v>
       </c>
       <c r="B28" s="15">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C28" s="15">
-        <v>98.233527415133707</v>
+        <v>101.49368462410899</v>
       </c>
       <c r="D28" s="14">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="14">
-        <v>7.5</v>
+      <c r="G28" s="15">
+        <v>8</v>
       </c>
       <c r="H28" s="15">
-        <v>94.416105647581404</v>
+        <v>98.233527415133707</v>
       </c>
       <c r="I28" s="14">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="14">
-        <v>9.4</v>
+      <c r="B29" s="15">
+        <v>9</v>
       </c>
       <c r="C29" s="15">
-        <v>114.479833669096</v>
+        <v>110.16305817539201</v>
       </c>
       <c r="D29" s="14">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="14">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="H29" s="15">
-        <v>111.33488128825799</v>
+        <v>114.479833669096</v>
       </c>
       <c r="I29" s="14">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,23 +1831,23 @@
         <v>8</v>
       </c>
       <c r="C30" s="15">
-        <v>96.201497411942611</v>
+        <v>95.410517592173704</v>
       </c>
       <c r="D30" s="14">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="14">
-        <v>7.7</v>
+      <c r="G30" s="15">
+        <v>8</v>
       </c>
       <c r="H30" s="15">
-        <v>102.970932100266</v>
+        <v>96.201497411942611</v>
       </c>
       <c r="I30" s="14">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,34 +1855,34 @@
         <v>13</v>
       </c>
       <c r="B31" s="15">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C31" s="15">
-        <v>83.077956004097004</v>
+        <v>89.010477612034705</v>
       </c>
       <c r="D31" s="14">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="14">
-        <v>5.9</v>
+      <c r="G31" s="15">
+        <v>6.7</v>
       </c>
       <c r="H31" s="15">
-        <v>81.750697850862792</v>
+        <v>83.077956004097004</v>
       </c>
       <c r="I31" s="14">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="34">
-        <v>94.6</v>
+      <c r="B32" s="40">
+        <v>94.4</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="35"/>
@@ -1955,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="34">
-        <v>96.6</v>
+        <v>94.6</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="35"/>
@@ -1973,14 +1909,14 @@
     </row>
     <row r="34" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="22"/>
       <c r="F34" s="13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1990,324 +1926,324 @@
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="28">
-        <v>7.8</v>
+      <c r="B35" s="14">
+        <v>8.6</v>
       </c>
       <c r="C35" s="15">
-        <v>94.428145509847511</v>
-      </c>
-      <c r="D35" s="29">
-        <v>99</v>
+        <v>100.38523429133599</v>
+      </c>
+      <c r="D35" s="14">
+        <v>103</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="28">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="H35" s="15">
-        <v>90.047303944807695</v>
+        <v>94.428145509847511</v>
       </c>
       <c r="I35" s="29">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="15">
-        <v>7.3</v>
+      <c r="B36" s="14">
+        <v>8.1</v>
       </c>
       <c r="C36" s="15">
-        <v>94.406854395270798</v>
+        <v>95.610214500838495</v>
       </c>
       <c r="D36" s="14">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="15">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="H36" s="15">
-        <v>95.283542585567403</v>
+        <v>94.406854395270798</v>
       </c>
       <c r="I36" s="14">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15">
-        <v>8.1999999999999993</v>
+      <c r="B37" s="14">
+        <v>8.8000000000000007</v>
       </c>
       <c r="C37" s="15">
-        <v>110.91616467016401</v>
+        <v>105.811288727171</v>
       </c>
       <c r="D37" s="14">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="15">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H37" s="15">
-        <v>108.568972759909</v>
+        <v>110.91616467016401</v>
       </c>
       <c r="I37" s="14">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="15">
-        <v>7.2</v>
+      <c r="B38" s="14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="C38" s="15">
-        <v>96.543513903719003</v>
+        <v>99.979970383081692</v>
       </c>
       <c r="D38" s="14">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="15">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H38" s="15">
-        <v>101.80983467954098</v>
+        <v>96.543513903719003</v>
       </c>
       <c r="I38" s="14">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="15">
-        <v>7.9</v>
+      <c r="B39" s="14">
+        <v>8.8000000000000007</v>
       </c>
       <c r="C39" s="15">
-        <v>106.01020095575599</v>
+        <v>108.04525102160001</v>
       </c>
       <c r="D39" s="14">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="15">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="H39" s="15">
-        <v>102.54730913176499</v>
+        <v>106.01020095575599</v>
       </c>
       <c r="I39" s="14">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="15">
-        <v>8.1999999999999993</v>
+      <c r="B40" s="14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="C40" s="15">
-        <v>109.24104635337999</v>
-      </c>
-      <c r="D40" s="19">
-        <v>90</v>
+        <v>101.849599560729</v>
+      </c>
+      <c r="D40" s="14">
+        <v>97</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="15">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H40" s="15">
-        <v>109.88899102196099</v>
+        <v>109.24104635337999</v>
       </c>
       <c r="I40" s="19">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="15">
-        <v>5.8</v>
+      <c r="B41" s="14">
+        <v>6.8</v>
       </c>
       <c r="C41" s="15">
-        <v>83.477099510532611</v>
-      </c>
-      <c r="D41" s="19">
-        <v>83</v>
+        <v>85.445798895994898</v>
+      </c>
+      <c r="D41" s="14">
+        <v>95</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="15">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H41" s="15">
-        <v>85.8394387579784</v>
+        <v>83.477099510532611</v>
       </c>
       <c r="I41" s="19">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="15">
-        <v>8.4</v>
+      <c r="B42" s="14">
+        <v>9.1999999999999993</v>
       </c>
       <c r="C42" s="15">
-        <v>111.541563160959</v>
-      </c>
-      <c r="D42" s="19">
-        <v>91</v>
+        <v>113.57993743685999</v>
+      </c>
+      <c r="D42" s="14">
+        <v>97</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="15">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H42" s="15">
-        <v>109.760324225369</v>
+        <v>111.541563160959</v>
       </c>
       <c r="I42" s="19">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="15">
-        <v>7.6</v>
+      <c r="B43" s="14">
+        <v>7.5</v>
       </c>
       <c r="C43" s="15">
-        <v>98.349505867075109</v>
+        <v>94.416105647581404</v>
       </c>
       <c r="D43" s="14">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="15">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="H43" s="15">
-        <v>106.046300104311</v>
+        <v>98.349505867075109</v>
       </c>
       <c r="I43" s="14">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>8.6</v>
       </c>
-      <c r="C44" s="28">
-        <v>106.04863530156501</v>
-      </c>
-      <c r="D44" s="19">
-        <v>98</v>
+      <c r="C44" s="15">
+        <v>111.33488128825799</v>
+      </c>
+      <c r="D44" s="14">
+        <v>93</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="15">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="H44" s="28">
-        <v>102.24680556067301</v>
+        <v>106.04863530156501</v>
       </c>
       <c r="I44" s="19">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="15">
-        <v>8.6</v>
-      </c>
-      <c r="C45" s="28">
-        <v>102.90687864611101</v>
-      </c>
-      <c r="D45" s="19">
-        <v>100</v>
+      <c r="B45" s="14">
+        <v>7.7</v>
+      </c>
+      <c r="C45" s="15">
+        <v>102.970932100266</v>
+      </c>
+      <c r="D45" s="14">
+        <v>89</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="15">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="H45" s="28">
-        <v>98.393820478723001</v>
+        <v>102.90687864611101</v>
       </c>
       <c r="I45" s="19">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="15">
-        <v>7.2</v>
+      <c r="B46" s="14">
+        <v>5.9</v>
       </c>
       <c r="C46" s="15">
-        <v>83.818611663547699</v>
-      </c>
-      <c r="D46" s="19">
-        <v>104</v>
+        <v>81.750697850862792</v>
+      </c>
+      <c r="D46" s="14">
+        <v>87</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="15">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H46" s="15">
-        <v>89.355158865848907</v>
+        <v>83.818611663547699</v>
       </c>
       <c r="I46" s="19">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="16" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2315,16 +2251,16 @@
         <v>9</v>
       </c>
       <c r="B47" s="34">
-        <v>92.9</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
+        <v>96.6</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="32"/>
       <c r="F47" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="38">
-        <v>81.099999999999994</v>
+        <v>92.9</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
@@ -2354,27 +2290,27 @@
       <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="A51" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -2385,23 +2321,23 @@
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="49"/>
+      <c r="B54" s="50"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>

--- a/data/BOC/HOUS/SHIP/shipment.xlsx
+++ b/data/BOC/HOUS/SHIP/shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202110 - March 8, 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202111 - April 7, 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F1A07-D657-4183-9301-F9E5DA3BD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FE902-8B79-43D9-9EA3-4EEFF219D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4620" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,20 +178,6 @@
   </si>
   <si>
     <r>
-      <t>November</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>December</t>
     </r>
     <r>
@@ -205,6 +191,9 @@
     </r>
   </si>
   <si>
+    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
+  </si>
+  <si>
     <r>
       <t>January</t>
     </r>
@@ -215,11 +204,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>February</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>p</t>
     </r>
-  </si>
-  <si>
-    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1146,10 +1146,10 @@
         <v>9.1</v>
       </c>
       <c r="C5" s="15">
-        <v>97.435556967765407</v>
+        <v>96.101744134585999</v>
       </c>
       <c r="D5" s="14">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
@@ -1176,10 +1176,17 @@
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C6" s="15">
+        <v>96.5748884160231</v>
+      </c>
+      <c r="D6" s="14">
+        <v>115</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="18" t="s">
         <v>15</v>
@@ -1442,7 +1449,7 @@
       <c r="C15" s="15"/>
       <c r="E15" s="12"/>
       <c r="F15" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G15" s="15">
         <v>9.1</v>
@@ -1470,16 +1477,16 @@
       <c r="C16" s="15"/>
       <c r="E16" s="12"/>
       <c r="F16" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>88.644701218781591</v>
+        <v>87.893216723899798</v>
       </c>
       <c r="I16" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="18"/>
@@ -1495,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="38">
-        <v>9.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
